--- a/public/template-import-excel/edom-excel-import-pengajaran.xlsx
+++ b/public/template-import-excel/edom-excel-import-pengajaran.xlsx
@@ -16,14 +16,6 @@
   <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
   <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
-  <si>
-    <t>Mata Kuliah</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -117,7 +109,7 @@
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" style="1" width="9.142307692307693"/>
-    <col min="2" max="2" style="1" width="28.85540865384616" customWidth="1"/>
+    <col min="2" max="2" style="1" width="48.282812500000006" customWidth="1"/>
     <col min="3" max="3" style="1" width="12.142127403846155" customWidth="1"/>
     <col min="4" max="4" style="1" width="11.427884615384617" customWidth="1"/>
     <col min="5" max="5" style="1" width="17.856069711538463" customWidth="1"/>
@@ -152,8 +144,10 @@
           <t>Angkatan Kelas</t>
         </is>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>0</v>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>Mata Kuliah</t>
+        </is>
       </c>
       <c r="G1" s="2"/>
     </row>
